--- a/output/google_maps_data_Tempat_Ibadah_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Tempat_Ibadah_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>-7.802763</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.802763</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.369674</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cetiya+Buddhakhirti/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57844d29ed4d:0x1075ef5c9932c644!8m2!3d-7.8027626!4d110.3696737!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11clh2hqjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Cetiya+Buddhakhirti/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57844d29ed4d:0x1075ef5c9932c644!8m2!3d-7.8027626!4d110.3696737!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11clh2hqjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -548,25 +542,24 @@
           <t>(0274) 548740</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.787064</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.787064</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.369895</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HKBP+Yogyakarta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582e32e22231:0x974b0318361223dd!8m2!3d-7.7870638!4d110.3698952!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdFoyWklOVk5SRUFF4AEA-gEFCIQBEDo!16s%2Fg%2F11bc7t0czp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/HKBP+Yogyakarta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582e32e22231:0x974b0318361223dd!8m2!3d-7.7870638!4d110.3698952!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdFoyWklOVk5SRUFF4AEA-gEFCIQBEDo!16s%2Fg%2F11bc7t0czp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -586,22 +579,21 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.794585</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.794585</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.369203</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Agii/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582836918d23:0xda133c2beb02d2a0!8m2!3d-7.7945851!4d110.3692027!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11fk1c0rhm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -616,25 +608,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.803549</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.803549</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.369842</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Sayidan/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57850056ca21:0xa8efa0b92ac530ca!8m2!3d-7.8035488!4d110.3698419!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBE2hpc3RvcmljYWxfbGFuZG1hcmuaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkJOblkzVVhwblJSQULgAQD6AQQIABBB!16s%2Fg%2F11h7dclrlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Sayidan/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57850056ca21:0xa8efa0b92ac530ca!8m2!3d-7.8035488!4d110.3698419!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBE2hpc3RvcmljYWxfbGFuZG1hcmuaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkJOblkzVVhwblJSQULgAQD6AQQIABBB!16s%2Fg%2F11h7dclrlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -654,22 +645,21 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-7.801367</v>
+      </c>
       <c r="G6" t="n">
-        <v>-7.801367</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ayah/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57002177d04d:0x4cb8f35cde006171!8m2!3d-7.8013672!4d110.3647568!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11y6g2q1v0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -688,25 +678,24 @@
           <t>0877-3858-8501</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.795885</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.795885</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.361832</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J-HOPE+WORSHIP+CENTER/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58275c0ca57f:0x36a5feffda017e0d!8m2!3d-7.7958852!4d110.3618322!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXCaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRaM05IT1c1M1JSQULgAQD6AQQIABAa!16s%2Fg%2F11cn0r8lj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J-HOPE+WORSHIP+CENTER/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58275c0ca57f:0x36a5feffda017e0d!8m2!3d-7.7958852!4d110.3618322!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXCaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRaM05IT1c1M1JSQULgAQD6AQQIABAa!16s%2Fg%2F11cn0r8lj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -725,25 +714,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>-7.7948</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.7948</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.373501</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+pante+kosta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a590001e6143f:0x9b3cd1e2dc530f60!8m2!3d-7.7948!4d110.3735007!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11wr1nlmpq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+pante+kosta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a590001e6143f:0x9b3cd1e2dc530f60!8m2!3d-7.7948!4d110.3735007!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11wr1nlmpq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -762,25 +750,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.804025</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.804025</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.362958</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gema+Takbir+Jogja/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578ef5f12e7f:0xe12c476cf6ba463f!8m2!3d-7.8040251!4d110.362958!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU2QwMVFUMDlCRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11g8b9whwf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gema+Takbir+Jogja/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578ef5f12e7f:0xe12c476cf6ba463f!8m2!3d-7.8040251!4d110.362958!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU2QwMVFUMDlCRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11g8b9whwf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -807,25 +794,24 @@
           <t>(0274) 563841</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.799336</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.799336</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.364635</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GPIB+Marga+Mulya+Yogyakarta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5788ede357bd:0x1d0efb5e4b8355cd!8m2!3d-7.7993358!4d110.3646347!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEXByb3Rlc3RhbnRfY2h1cmNomgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TZVRsRGMzQjNSUkFC4AEA-gEECAAQJQ!16s%2Fg%2F121dc7gf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GPIB+Marga+Mulya+Yogyakarta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5788ede357bd:0x1d0efb5e4b8355cd!8m2!3d-7.7993358!4d110.3646347!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEXByb3Rlc3RhbnRfY2h1cmNomgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TZVRsRGMzQjNSUkFC4AEA-gEECAAQJQ!16s%2Fg%2F121dc7gf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -844,25 +830,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.79591</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.79591</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.361932</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBI+Diaspora+Sejahtera+Yogyakarta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a594bdf858d43:0xeba8c1f543fbb50a!8m2!3d-7.7959101!4d110.3619324!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11rykcxpwp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBI+Diaspora+Sejahtera+Yogyakarta/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a594bdf858d43:0xeba8c1f543fbb50a!8m2!3d-7.7959101!4d110.3619324!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11rykcxpwp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -885,25 +870,24 @@
           <t>(0274) 376626</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>-7.804906</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.804906</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.373403</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GPdI+Prawirodirjan/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578343392305:0xcc3e08ab51c7115c!8m2!3d-7.8049057!4d110.3734025!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEnBlbnRlY29zdGFsX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReE5IVllORVJuRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11gbp4m85v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GPdI+Prawirodirjan/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578343392305:0xcc3e08ab51c7115c!8m2!3d-7.8049057!4d110.3734025!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEnBlbnRlY29zdGFsX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReE5IVllORVJuRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11gbp4m85v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -923,22 +907,21 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.798092</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.798092</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.369469</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/At-Taubah+wal+Ghufron/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5787bd5b6bc5:0x2b8fb5f61ddf1f94!8m2!3d-7.7980916!4d110.3694688!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7rzmt8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -958,22 +941,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.805593</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.805593</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.367855</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bumi+Agung/@-7.8016859,110.3415872,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5785461f8f33:0xabff376b0a02926b!8m2!3d-7.8055927!4d110.3678553!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bx8h0zk9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -996,25 +978,24 @@
           <t>(0274) 518586</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>-7.792357</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.792357</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.360149</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Katolik+Hati+Santa+Perawan+Maria+Tak+Bercela,+Kumetiran/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58213d03808f:0x22b27ba39fc376fe!8m2!3d-7.7923568!4d110.3601493!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2NtRkxRamwzUlJBQuABAPoBBAgAEEE!16s%2Fg%2F1hm1qn1ly?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1034,22 +1015,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.797517</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.797517</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.370623</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Biara+Siste+Ceriti+Mother+Of+Merci+ST+Sisilia/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57876d285fc7:0x724c2445fddc139d!8m2!3d-7.7975173!4d110.3706226!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7r1f5s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1072,25 +1052,24 @@
           <t>(0274) 372295</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>-7.816309</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.816309</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.356022</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Hati+Kudus+Tuhan+Yesus+Pugeran/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57955e5c2c55:0x43dbedf4c7714b5c!8m2!3d-7.8163089!4d110.3560218!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSkxVMWxMVGhSUlJBQuABAPoBBAgAEDM!16s%2Fg%2F1hm5wddv5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Hati+Kudus+Tuhan+Yesus+Pugeran/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57955e5c2c55:0x43dbedf4c7714b5c!8m2!3d-7.8163089!4d110.3560218!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSkxVMWxMVGhSUlJBQuABAPoBBAgAEDM!16s%2Fg%2F1hm5wddv5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1109,25 +1088,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>-7.808668</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.808668</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.361828</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musholla+At+-+Taubah/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a579184a23025:0x4d92a7cc66f6ae5b!8m2!3d-7.8086685!4d110.3618282!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjRhM0Z4WDBwUkVBReABAPoBBAhwEEk!16s%2Fg%2F11btmct0s2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musholla+At+-+Taubah/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a579184a23025:0x4d92a7cc66f6ae5b!8m2!3d-7.8086685!4d110.3618282!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjRhM0Z4WDBwUkVBReABAPoBBAhwEEk!16s%2Fg%2F11btmct0s2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1154,25 +1132,24 @@
           <t>0896-1601-6080</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.7914</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.7914</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.362418</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GPdI+Hagios+Family+Sosrowijayan/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582664a919b1:0x9afd4436b77efb4!8m2!3d-7.7914002!4d110.362418!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEnBlbnRlY29zdGFsX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOZmRXVnhURUZSRUFF4AEA-gEECFUQMA!16s%2Fg%2F11spf6386g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GPdI+Hagios+Family+Sosrowijayan/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582664a919b1:0x9afd4436b77efb4!8m2!3d-7.7914002!4d110.362418!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEnBlbnRlY29zdGFsX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOZmRXVnhURUZSRUFF4AEA-gEECFUQMA!16s%2Fg%2F11spf6386g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1195,25 +1172,24 @@
           <t>0821-3832-1558</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>-7.809138</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.809138</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.372484</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKAI+TALITAKUMI/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a570050131b31:0x84f5df25eda97689!8m2!3d-7.8091375!4d110.3724844!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11wtqch_dk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKAI+TALITAKUMI/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a570050131b31:0x84f5df25eda97689!8m2!3d-7.8091375!4d110.3724844!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11wtqch_dk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1240,25 +1216,24 @@
           <t>(0274) 377766</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>-7.806382</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.806382</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.350873</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Kristen+Jawa+Wirobrajan(+%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%BA%EA%A6%97%EA%A6%8F%EA%A6%BF%EA%A6%B6%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%BC%EA%A6%A4%EA%A7%80%EA%A6%97%EA%A6%AE%EA%A6%AE%EA%A6%B6%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%BF%EA%A6%97%EA%A6%A4%EA%A7%80)/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57f26fcaa2d5:0x45ab3755eb3b208d!8m2!3d-7.8063824!4d110.350873!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2NUWXpZWEIzUlJBQuABAPoBBAgAEDU!16s%2Fg%2F1hc3xqmyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Kristen+Jawa+Wirobrajan(+%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%BA%EA%A6%97%EA%A6%8F%EA%A6%BF%EA%A6%B6%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%BC%EA%A6%A4%EA%A7%80%EA%A6%97%EA%A6%AE%EA%A6%AE%EA%A6%B6%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%BF%EA%A6%97%EA%A6%A4%EA%A7%80)/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57f26fcaa2d5:0x45ab3755eb3b208d!8m2!3d-7.8063824!4d110.350873!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2NUWXpZWEIzUlJBQuABAPoBBAgAEDU!16s%2Fg%2F1hc3xqmyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1285,25 +1260,24 @@
           <t>(0274) 514704</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.798976</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.798976</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.361914</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Kristen+Indonesia+Ngupasan+Yogyakarta/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578973c3e20b:0xc91462e9244cc426!8m2!3d-7.798976!4d110.3619142!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBE3ByZXNieXRlcmlhbl9jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTBhVXRMUkVWbkVBReABAPoBBAgAEEM!16s%2Fg%2F1hm5s5wjz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Kristen+Indonesia+Ngupasan+Yogyakarta/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578973c3e20b:0xc91462e9244cc426!8m2!3d-7.798976!4d110.3619142!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBE3ByZXNieXRlcmlhbl9jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTBhVXRMUkVWbkVBReABAPoBBAgAEEM!16s%2Fg%2F1hm5s5wjz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1330,25 +1304,24 @@
           <t>(0274) 589803</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>-7.788325</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.788325</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.371059</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Antonius+Padua,+Kotabaru+Yogyakarta/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582e50ebaf2b:0x1c7ecd57548a1527!8m2!3d-7.7883253!4d110.3710594!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNGFuUlVXRGwzUlJBQuABAPoBBAgAEEE!16s%2Fg%2F1hc63p429?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Antonius+Padua,+Kotabaru+Yogyakarta/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582e50ebaf2b:0x1c7ecd57548a1527!8m2!3d-7.7883253!4d110.3710594!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNGFuUlVXRGwzUlJBQuABAPoBBAgAEEE!16s%2Fg%2F1hc63p429?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1371,25 +1344,24 @@
           <t>0895-2732-6859</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.794787</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.794787</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.3729</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GPdI+House+of+Worship/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582bed009f4f:0x3232ac2099527f3a!8m2!3d-7.7947869!4d110.3728997!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEnBlbnRlY29zdGFsX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMWFXRm1hbVYzRUFF4AEA-gEECAAQIw!16s%2Fg%2F1hm34l2n0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GPdI+House+of+Worship/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a582bed009f4f:0x3232ac2099527f3a!8m2!3d-7.7947869!4d110.3728997!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEnBlbnRlY29zdGFsX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMWFXRm1hbVYzRUFF4AEA-gEECAAQIw!16s%2Fg%2F1hm34l2n0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1409,22 +1381,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.801367</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.801367</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jogjakarta/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5700262cfef5:0x8facf61de69d4301!8m2!3d-7.8013672!4d110.3647568!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11lzm4j76y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1443,25 +1414,24 @@
           <t>(0274) 582421</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>-7.800317</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.800317</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.356457</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GSJA+(Gereja+Sidang+Jemaat+Allah)+%22Haleluya%22/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578b146437c5:0x2267a3ad8aa8ec0f!8m2!3d-7.8003174!4d110.3564571!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBGGFzc2VtYmxpZXNfb2ZfZ29kX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VScWJqZE1XakZuUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hc1n_qfq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GSJA+(Gereja+Sidang+Jemaat+Allah)+%22Haleluya%22/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578b146437c5:0x2267a3ad8aa8ec0f!8m2!3d-7.8003174!4d110.3564571!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBGGFzc2VtYmxpZXNfb2ZfZ29kX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VScWJqZE1XakZuUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1hc1n_qfq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1481,22 +1451,21 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.805989</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.805989</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.366063</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gedung+Muhammadiyah+Bludiran/@-7.7923568,110.3241004,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a572688742209:0xffdeaa0f737681e8!8m2!3d-7.8059891!4d110.3660628!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11pvwxqg0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1512,22 +1481,21 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-7.798917</v>
+      </c>
       <c r="G28" t="n">
-        <v>-7.798917</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.389506</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%B2%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%A9%EA%A6%83+masjid+Al+-Hikmah/@-7.7989169,110.3534568,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5777c4a22aff:0x5f4f86109fc93052!8m2!3d-7.7989169!4d110.3895057!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11tpb0mtwq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1543,22 +1511,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-7.80449</v>
+      </c>
       <c r="G29" t="n">
-        <v>-7.80449</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.373408</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GSJP+BUKIT+SION+BINTARAN/@-7.7989169,110.3534568,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57219e24fb71:0x8e42f3399aa2e550!8m2!3d-7.8044898!4d110.3734079!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11rk_v388q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1577,25 +1544,24 @@
           <t>0857-7618-3512</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>-7.793757</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.793757</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.368685</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pondok+Mawar%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A7%80%EA%A6%A9%EA%A6%AE%EA%A6%82/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a590b2fb5376f:0x7d8011c529f54832!8m2!3d-7.7937565!4d110.3686848!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11jwjdyds1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1611,22 +1577,21 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.778821</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.778821</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.381535</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%86%EA%A6%8F%EA%A6%B3%EA%A7%80%EA%A6%AD%EA%A6%B1%EA%A7%80/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5926d7dcdd15:0xa8c3662330e84c9f!8m2!3d-7.7788212!4d110.3815347!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11kb1zz8ln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1642,22 +1607,21 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-7.80103</v>
+      </c>
       <c r="G32" t="n">
-        <v>-7.80103</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.368194</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A0%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%82+masjid+taman+pintar/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a574bf0f633a9:0x6fd875bdfd7a97f2!8m2!3d-7.8010298!4d110.3681943!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11k4_g3vtf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1673,22 +1637,21 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.793295</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.793295</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.358932</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gua+Hati+Santa+Perawan+Maria+tak+Bercela+Kumetiran/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5900713f88df:0xeb2d85e3b811d739!8m2!3d-7.7932948!4d110.3589315!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11wvvtgklf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1704,22 +1667,21 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.801617</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.801617</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.361801</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Langgar+Faqih/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5741cee132bb:0xcafec52464ebc8cb!8m2!3d-7.8016174!4d110.3618013!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11sv1vr79z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1742,25 +1704,24 @@
           <t>(0274) 376836</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.803917</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.803917</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.37024</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKI+Gondomanan/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5784f04376f3:0xb8fa42672b11bfeb!8m2!3d-7.8039167!4d110.3702399!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEGNocmlzdGlhbl9jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmFaMWxwVWxoUkVBReABAPoBBAgAEDE!16s%2Fg%2F1pzpv8d93?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKI+Gondomanan/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5784f04376f3:0xb8fa42672b11bfeb!8m2!3d-7.8039167!4d110.3702399!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEGNocmlzdGlhbl9jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmFaMWxwVWxoUkVBReABAPoBBAgAEDE!16s%2Fg%2F1pzpv8d93?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1783,25 +1744,24 @@
           <t>(0274) 514743</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.797037</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.797037</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.363877</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Kristen+Kalam+Kudus+%EA%A7%8B%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%BA%EA%A6%97%EA%A6%8F%EA%A6%BF%EA%A6%B6%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%BC%EA%A6%A4%EA%A7%80%EA%A6%8F%EA%A6%AD%EA%A6%A9%EA%A7%80%EA%A6%8F%EA%A6%B8%EA%A6%A3%EA%A6%B8%EA%A6%B1%EA%A7%80/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578834338187:0x18b7e8d684eacbae!8m2!3d-7.7970372!4d110.3638773!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObWEzWkxMVk4zRUFF4AEA-gEECAAQIQ!16s%2Fg%2F1hc75pq3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Kristen+Kalam+Kudus+%EA%A7%8B%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%BA%EA%A6%97%EA%A6%8F%EA%A6%BF%EA%A6%B6%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%BC%EA%A6%A4%EA%A7%80%EA%A6%8F%EA%A6%AD%EA%A6%A9%EA%A7%80%EA%A6%8F%EA%A6%B8%EA%A6%A3%EA%A6%B8%EA%A6%B1%EA%A7%80/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578834338187:0x18b7e8d684eacbae!8m2!3d-7.7970372!4d110.3638773!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObWEzWkxMVk4zRUFF4AEA-gEECAAQIQ!16s%2Fg%2F1hc75pq3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1820,25 +1780,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>-7.801869</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.801869</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.366834</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bruderan+FIC/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578387935d5d:0x399778c05313fecf!8m2!3d-7.801869!4d110.3668341!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBFXJlbGlnaW91c19kZXN0aW5hdGlvbuABAA!16s%2Fg%2F11q_kq7nhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bruderan+FIC/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578387935d5d:0x399778c05313fecf!8m2!3d-7.801869!4d110.3668341!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBFXJlbGlnaW91c19kZXN0aW5hdGlvbuABAA!16s%2Fg%2F11q_kq7nhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1857,25 +1816,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.7</v>
+        <v>-7.797188</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.797188</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.378555</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Hidayah%E2%80%8E/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a577e5243366d:0x43e1e74035773c35!8m2!3d-7.7971883!4d110.3785554!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU1gwd3liR2hCUlJBQuABAPoBBAguEEU!16s%2Fg%2F1pzw63ztw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Hidayah%E2%80%8E/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a577e5243366d:0x43e1e74035773c35!8m2!3d-7.7971883!4d110.3785554!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU1gwd3liR2hCUlJBQuABAPoBBAguEEU!16s%2Fg%2F1pzw63ztw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1895,22 +1853,21 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-7.803597</v>
+      </c>
       <c r="G39" t="n">
-        <v>-7.803597</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.360837</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Langgar+Dhuwur/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578bdaa4eb87:0x5c49f9ecc0406527!8m2!3d-7.8035973!4d110.3608369!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11kptnw9mt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1929,25 +1886,24 @@
           <t>(0274) 513460</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.782604</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.782604</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.373932</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Baptis+Indonesia+Anugerah/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58318198e939:0x3bbd065467291220!8m2!3d-7.7826045!4d110.3739319!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBDmJhcHRpc3RfY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJMTTNOWGVscFJFQUXgAQD6AQQIABA0!16s%2Fg%2F1hc5qqqdj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Baptis+Indonesia+Anugerah/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58318198e939:0x3bbd065467291220!8m2!3d-7.7826045!4d110.3739319!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBDmJhcHRpc3RfY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJMTTNOWGVscFJFQUXgAQD6AQQIABA0!16s%2Fg%2F1hc5qqqdj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1966,25 +1922,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.797635</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.797635</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.363865</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Bethel+Indonesia+Getsemani+Beskalan/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a570002363fe1:0xa4a0439308b91da2!8m2!3d-7.7976351!4d110.3638646!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOa01DMVRRbEpuRUFF4AEA-gEECAAQJg!16s%2Fg%2F11lddp62lt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2003,25 +1958,24 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>-7.799394</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.799394</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.362336</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A7%EA%A6%BB%EA%A6%A0%EA%A6%B8%EA%A6%82%EA%A6%AB%EA%A6%B2%EA%A6%B6%EA%A6%A9%EA%A7%80+Masjid+Baiturrahim/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57890d77a597:0xcf25f4947fc28562!8m2!3d-7.7993943!4d110.3623361!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGEwMTVVMmxuUlJBQuABAPoBBAgAED4!16s%2Fg%2F11bzyn1vf2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A7%EA%A6%BB%EA%A6%A0%EA%A6%B8%EA%A6%82%EA%A6%AB%EA%A6%B2%EA%A6%B6%EA%A6%A9%EA%A7%80+Masjid+Baiturrahim/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57890d77a597:0xcf25f4947fc28562!8m2!3d-7.7993943!4d110.3623361!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGEwMTVVMmxuUlJBQuABAPoBBAgAED4!16s%2Fg%2F11bzyn1vf2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2044,25 +1998,24 @@
           <t>(0274) 385959</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-7.804319</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.804319</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.360609</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Majelis+Tabligh+Aisyiaah/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578dd5d89b27:0xe751c610479b7660!8m2!3d-7.8043188!4d110.3606089!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bbyjh17d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Majelis+Tabligh+Aisyiaah/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a578dd5d89b27:0xe751c610479b7660!8m2!3d-7.8043188!4d110.3606089!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bbyjh17d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2082,22 +2035,21 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.798404</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.798404</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.359143</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+'Aisyiyah+Ngadiwinatan/@-7.7937565,110.3326359,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57d5da56ebf3:0xe2234c96ee68514a!8m2!3d-7.7984037!4d110.3591432!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11kq12d38h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2120,25 +2072,24 @@
           <t>(0274) 4281270</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.81009</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.81009</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.351058</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katholik+Brayat+Minulya,+Wirobrajan(+%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%BA%EA%A6%97%EA%A6%8F%EA%A6%9B%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%A7%EA%A6%BF%EA%A6%AA%EA%A6%A0%EA%A7%80%EA%A6%A9%EA%A6%B6%EA%A6%A4%EA%A6%B8%EA%A6%AD%EA%A6%BE%EA%A7%88%EA%A6%AE%EA%A6%B6%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%BF%EA%A6%97%EA%A6%A4%EA%A7%80)/@-7.81009,110.3150094,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57ec50bdd0b3:0xf6a718e3fe9535f3!8m2!3d-7.81009!4d110.3510583!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMU9HWnhTRlJCRUFF4AEA-gEECAAQPA!16s%2Fg%2F11clzk7_p4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katholik+Brayat+Minulya,+Wirobrajan(+%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%BA%EA%A6%97%EA%A6%8F%EA%A6%9B%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%A7%EA%A6%BF%EA%A6%AA%EA%A6%A0%EA%A7%80%EA%A6%A9%EA%A6%B6%EA%A6%A4%EA%A6%B8%EA%A6%AD%EA%A6%BE%EA%A7%88%EA%A6%AE%EA%A6%B6%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%BF%EA%A6%97%EA%A6%A4%EA%A7%80)/@-7.81009,110.3150094,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57ec50bdd0b3:0xf6a718e3fe9535f3!8m2!3d-7.81009!4d110.3510583!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMU9HWnhTRlJCRUFF4AEA-gEECAAQPA!16s%2Fg%2F11clzk7_p4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2157,25 +2108,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.9</v>
+        <v>-7.811004</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.811004</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.370522</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Tarbiyatul+Fikri+Dipowinatan/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a579bb1f55f33:0x5936be3ceed2e442!8m2!3d-7.8110042!4d110.3705217!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBjR0ZtV2s5M0VBReABAPoBBAgAEDc!16s%2Fg%2F11f54n_b6q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Tarbiyatul+Fikri+Dipowinatan/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a579bb1f55f33:0x5936be3ceed2e442!8m2!3d-7.8110042!4d110.3705217!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBjR0ZtV2s5M0VBReABAPoBBAgAEDc!16s%2Fg%2F11f54n_b6q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2195,22 +2145,21 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-7.79558</v>
+      </c>
       <c r="G47" t="n">
-        <v>-7.79558</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.36949</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/batak+kalinongko+kerembangan/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a597e3247003f:0x7e7eeb88308e63b2!8m2!3d-7.7955798!4d110.3694896!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11l2v0_2yf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2226,22 +2175,21 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-7.802969</v>
+      </c>
       <c r="G48" t="n">
-        <v>-7.802969</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.372861</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yusuf,+Bintaran/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5783714d9e9d:0xf885483a137c0c45!8m2!3d-7.8029691!4d110.3728607!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeGEyVTJTbTkzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1hc25hc6n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yusuf,+Bintaran/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5783714d9e9d:0xf885483a137c0c45!8m2!3d-7.8029691!4d110.3728607!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeGEyVTJTbTkzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1hc25hc6n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2264,25 +2212,24 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.8</v>
+        <v>-7.752971</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.752971</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.360782</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBI+Keluarga+Allah+The+Star+Yogyakarta/@-7.7529711,110.3247334,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58f6757a47c7:0x363b1b29df09c188!8m2!3d-7.7529711!4d110.3607823!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMmVVOVVXR1pSRUFF4AEA-gEECAAQJQ!16s%2Fg%2F11bv38ckz6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBI+Keluarga+Allah+The+Star+Yogyakarta/@-7.7529711,110.3247334,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a58f6757a47c7:0x363b1b29df09c188!8m2!3d-7.7529711!4d110.3607823!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMmVVOVVXR1pSRUFF4AEA-gEECAAQJQ!16s%2Fg%2F11bv38ckz6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2302,22 +2249,21 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>-7.779557</v>
+      </c>
       <c r="G50" t="n">
-        <v>-7.779557</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.389149</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Musholla+Spiritual+Company+Demangan/@-7.779557,110.3531002,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5900016e161b:0x84e69019d145325!8m2!3d-7.779557!4d110.3891491!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11vs0j4j5g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2333,22 +2279,21 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.803447</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.803447</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.358649</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+An-Nur/@-7.8034471,110.3225998,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a57004dfb6ded:0x98d19a66ab99e6b2!8m2!3d-7.8034471!4d110.3586487!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11w48vrdvt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2364,22 +2309,21 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-7.797927</v>
+      </c>
       <c r="G52" t="n">
-        <v>-7.797927</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.365756</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+Setjodiningrat/@-7.8034471,110.3225998,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5700096dba4b:0xa1f8f4db132c76ed!8m2!3d-7.797927!4d110.365756!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11x1pnw63v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2402,25 +2346,24 @@
           <t>0813-9178-0079</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.9</v>
+        <v>-7.801941</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.801941</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.367366</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+St.+Fransiskus+Xaverius,+Kidul+Loji/@-7.8034471,110.3225998,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5738b7806283:0x836269865ae5ab4!8m2!3d-7.8019409!4d110.3673662!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ05EUnBlbTUzUlJBQuABAPoBBAgAECo!16s%2Fg%2F11sxn7sb0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+St.+Fransiskus+Xaverius,+Kidul+Loji/@-7.8034471,110.3225998,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5738b7806283:0x836269865ae5ab4!8m2!3d-7.8019409!4d110.3673662!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ05EUnBlbTUzUlJBQuABAPoBBAgAECo!16s%2Fg%2F11sxn7sb0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
